--- a/biology/Botanique/Myriogramme/Myriogramme.xlsx
+++ b/biology/Botanique/Myriogramme/Myriogramme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myriogramme est un genre d’algues rouges de la famille des Delesseriaceae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (26 juillet 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (26 juillet 2013) :
 Myriogramme alliacea (P.L.Crouan &amp; H.M.Crouan) Athanasiadis
 Myriogramme auricularis E.Y.Dawson
 Myriogramme caespitosa E.Y.Dawson
@@ -548,7 +562,7 @@
 Myriogramme undulata (Kützing) Kylin
 Myriogramme unistromaticum Coppejans
 Myriogramme variegata Yamada
-Selon ITIS      (26 juillet 2013)[2] :
+Selon ITIS      (26 juillet 2013) :
 Myriogramme caespitosa
 Myriogramme divaricata
 Myriogramme hollenbergi
@@ -557,11 +571,11 @@
 Myriogramme repens
 Myriogramme spectabilis
 Myriogramme variegata Yamada, 1944
-Selon NCBI  (26 juillet 2013)[3] :
+Selon NCBI  (26 juillet 2013) :
 Myriogramme livida
 Myriogramme manginii
 Myriogramme smithii
-Selon World Register of Marine Species                               (26 juillet 2013)[4] :
+Selon World Register of Marine Species                               (26 juillet 2013) :
 Myriogramme alliacea (P.L.Crouan &amp; H.M.Crouan) Athanasiadis, 1996
 Myriogramme caespitosa E.Y.Dawson, 1949
 Myriogramme carnea (J.J.Rodríguez y Femenías) Kylin, 1924
